--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335388</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309997</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>190.1675586673111</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,52 +1056,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1387,10 +1387,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>22.66189934885966</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>169.9088723636406</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>200.3360962888297</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>161.6951706354068</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="22">
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>94.4876644797814</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.26531605719669</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.75315057824758</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.61775520402705</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="31">
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.3289263072337</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.9272112248127</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,17 +3274,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>117.261159054717</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,61 +3508,61 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>29.78216610882018</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>98.19508828039903</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>32.03583563884505</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
         <v>19.28114311021272</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735.8335372470253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C6" t="n">
-        <v>735.8335372470253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,10 +4655,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X6" t="n">
-        <v>735.8335372470253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y6" t="n">
-        <v>735.8335372470253</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
         <v>656.0584510084244</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5229,7 +5229,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5311,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y14" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V14" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="W14" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X14" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5393,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>941.1663480875457</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>697.7175714434456</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>697.7175714434456</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5466,22 +5466,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5600,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
         <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
         <v>31.35113235729608</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
         <v>761.6974622895962</v>
       </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
         <v>761.6974622895962</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Y20" t="n">
         <v>761.6974622895962</v>
-      </c>
-      <c r="V20" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="W20" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="X20" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>183.363730950278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.363730950278</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5937,10 +5937,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6174,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>22.57944215788615</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>22.57944215788615</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>22.57944215788615</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>284.0338015341832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6420,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>706.3289344460964</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>531.8759051649694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>874.5442714661644</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6609,7 +6609,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6882,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>425.5489231905453</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>425.5489231905453</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>425.5489231905453</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>758.2803810230778</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>758.2803810230778</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>550.428880817545</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8786,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,16 +22600,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>17.05674718752553</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>328.0572133466886</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>9.997170027510492</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>80.49467379535915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>81.18038932886157</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,10 +22922,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4282419190523</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23275,10 +23275,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23469,10 +23469,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>210.1386878005656</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>81.78611079727904</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24019,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24028,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.838013014460557</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="22">
@@ -24177,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>17.74777975671506</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>8.683973297415827</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.7800330716198</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>197.0482019127778</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,10 +24776,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>117.0649405732773</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="31">
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>273.9090123488199</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>59.75548455249168</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>40.38392140068392</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8490009179772</v>
       </c>
     </row>
     <row r="39">
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>352.9516755546604</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>107.5778969230784</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>317.3055321907215</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>200.7647515105802</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879945</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879937</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421396</v>
+        <v>-41751.83989425442</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733376</v>
+        <v>39017.59163729326</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733373</v>
+        <v>39017.59163729327</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822749</v>
+        <v>9585.249038187045</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.2022573338</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
     </row>
   </sheetData>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35506,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35740,7 +35740,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297006</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>190.1675586673111</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>62.4162677022923</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>22.66189934885966</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
@@ -1785,46 +1785,46 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>169.9088723636406</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>197.0267637357615</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>119.7194155574192</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2493,37 +2493,37 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="V26" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>24.31826474744572</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.05241763862477</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="31">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>109.364731275353</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,17 +3553,17 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.78216610882018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>41.69619877670934</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>98.19508828039903</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3915,46 +3915,46 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,28 +4021,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,40 +4149,40 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>670.7991829652278</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>670.7991829652278</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>435.6470747334852</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="4">
@@ -4521,7 +4521,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>327.2640844659515</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="7">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
         <v>506.1786963984129</v>
@@ -4849,7 +4849,7 @@
         <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y9" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="10">
@@ -5020,16 +5020,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="13">
@@ -5232,10 +5232,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>489.9572726784918</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="C15" t="n">
-        <v>315.5042433973647</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="D15" t="n">
-        <v>166.5698337361135</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="E15" t="n">
-        <v>166.5698337361135</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>941.1663480875457</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W15" t="n">
-        <v>697.7175714434456</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X15" t="n">
-        <v>697.7175714434456</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y15" t="n">
-        <v>489.9572726784918</v>
+        <v>75.50937722860556</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,22 +5539,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
         <v>262.7299197543128</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,7 +5603,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
         <v>725.4530095217538</v>
@@ -5633,13 +5633,13 @@
         <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>227.8867759685313</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5855,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
         <v>20.03527576299844</v>
@@ -5934,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>219.0522088294242</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="D27" t="n">
         <v>20.03527576299844</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>219.0522088294242</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D29" t="n">
-        <v>251.810259228364</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E29" t="n">
-        <v>251.810259228364</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F29" t="n">
-        <v>251.810259228364</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,19 +6572,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
         <v>20.03527576299844</v>
@@ -6603,10 +6603,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="34">
@@ -6885,19 +6885,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,19 +7046,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
         <v>20.03527576299844</v>
@@ -7119,7 +7119,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7356,10 +7356,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11156,7 +11156,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>17.05674718752553</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>93.75625739087863</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.997170027510492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,10 +22761,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22874,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>81.18038932886157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>2.675948473751646</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>84.58157038459437</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,10 +23114,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>114.1648013839902</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,19 +23342,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23472,13 +23472,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>81.67756538600173</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>210.1386878005656</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>81.78611079727904</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>148.9048724285834</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>54.66821942515813</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>52.98908343089657</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24499,13 +24499,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>18.51256717168616</v>
       </c>
       <c r="V26" t="n">
-        <v>287.2759793369997</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>123.126800817193</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,28 +24682,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>197.0482019127778</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.6302781386796</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="31">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,25 +25001,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>38.08033428928577</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>181.7930053394574</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,10 +25359,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>295.8490009179772</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,13 +25596,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.9516755546604</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>103.3730136166745</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>107.5778969230784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>145.0597660285826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>128.094650413183</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425442</v>
+        <v>-30755.630336218</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729326</v>
+        <v>50013.8011953297</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729327</v>
+        <v>50013.80119532967</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187045</v>
+        <v>20581.45859622346</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532972</v>
       </c>
     </row>
   </sheetData>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37630,7 +37630,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37876,7 +37876,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
